--- a/Client/DEngine/Excels/DataTable/DataTable.xlsx
+++ b/Client/DEngine/Excels/DataTable/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="6"/>
+    <workbookView windowHeight="17655" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="UIForm" sheetId="5" r:id="rId5"/>
     <sheet name="UIGroup" sheetId="6" r:id="rId6"/>
     <sheet name="UISound" sheetId="7" r:id="rId7"/>
+    <sheet name="Network" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -168,6 +169,42 @@
   </si>
   <si>
     <t>界面声音编号</t>
+  </si>
+  <si>
+    <t>网络配置表</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>ProtocolType</t>
+  </si>
+  <si>
+    <t>网络会话编号</t>
+  </si>
+  <si>
+    <t>会话名称</t>
+  </si>
+  <si>
+    <t>网络地址</t>
+  </si>
+  <si>
+    <t>监听端口</t>
+  </si>
+  <si>
+    <t>网络协议类型</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
   </si>
 </sst>
 </file>
@@ -1595,8 +1632,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1672,4 +1709,117 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="37.375" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="38.875" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5">
+        <v>20000</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Client/DEngine/Excels/DataTable/DataTable.xlsx
+++ b/Client/DEngine/Excels/DataTable/DataTable.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>ProtocolType</t>
+  </si>
+  <si>
+    <t>Fantasy.Network.NetworkProtocolType</t>
   </si>
   <si>
     <t>网络会话编号</t>
@@ -1717,7 +1720,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1775,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1783,22 +1786,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1806,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>20000</v>

--- a/Client/DEngine/Excels/DataTable/DataTable.xlsx
+++ b/Client/DEngine/Excels/DataTable/DataTable.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>KCP</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1723,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1817,8 +1820,8 @@
       <c r="F5">
         <v>20000</v>
       </c>
-      <c r="G5">
-        <v>1</v>
+      <c r="G5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Client/DEngine/Excels/DataTable/DataTable.xlsx
+++ b/Client/DEngine/Excels/DataTable/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="7"/>
+    <workbookView windowHeight="17655" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="UIForm" sheetId="5" r:id="rId5"/>
     <sheet name="UIGroup" sheetId="6" r:id="rId6"/>
     <sheet name="UISound" sheetId="7" r:id="rId7"/>
-    <sheet name="Network" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -169,48 +168,6 @@
   </si>
   <si>
     <t>界面声音编号</t>
-  </si>
-  <si>
-    <t>网络配置表</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>ProtocolType</t>
-  </si>
-  <si>
-    <t>Fantasy.Network.NetworkProtocolType</t>
-  </si>
-  <si>
-    <t>网络会话编号</t>
-  </si>
-  <si>
-    <t>会话名称</t>
-  </si>
-  <si>
-    <t>网络地址</t>
-  </si>
-  <si>
-    <t>监听端口</t>
-  </si>
-  <si>
-    <t>网络协议类型</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
-    <t>KCP</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1595,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
@@ -1715,117 +1672,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
-  <cols>
-    <col min="2" max="2" width="37.375" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="38.875" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5">
-        <v>20000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Client/DEngine/Excels/DataTable/DataTable.xlsx
+++ b/Client/DEngine/Excels/DataTable/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="6"/>
+    <workbookView windowHeight="17775" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="UIForm" sheetId="5" r:id="rId5"/>
     <sheet name="UIGroup" sheetId="6" r:id="rId6"/>
     <sheet name="UISound" sheetId="7" r:id="rId7"/>
+    <sheet name="#DataStruct" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,6 +190,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -299,13 +307,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -342,6 +343,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,12 +368,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,55 +654,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,11 +784,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,7 +1108,9 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1134,14 +1140,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1172,10 +1178,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1222,6 +1232,12 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A3:$XFD3">
+      <formula1>$3:$3</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1595,8 +1611,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="A1:F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1672,4 +1688,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Client/DEngine/Excels/DataTable/DataTable.xlsx
+++ b/Client/DEngine/Excels/DataTable/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="7"/>
+    <workbookView windowHeight="17775" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1533,13 +1533,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:F7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="4" max="4" width="34.75" customWidth="1"/>
@@ -1597,6 +1597,17 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1706,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Client/DEngine/Excels/DataTable/DataTable.xlsx
+++ b/Client/DEngine/Excels/DataTable/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="5"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -1107,10 +1107,10 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1535,7 +1535,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Client/DEngine/Excels/DataTable/DataTable.xlsx
+++ b/Client/DEngine/Excels/DataTable/DataTable.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowHeight="17775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
-    <sheet name="Music" sheetId="2" r:id="rId2"/>
-    <sheet name="Scene" sheetId="3" r:id="rId3"/>
-    <sheet name="Sound" sheetId="4" r:id="rId4"/>
-    <sheet name="UIForm" sheetId="5" r:id="rId5"/>
-    <sheet name="UIGroup" sheetId="6" r:id="rId6"/>
-    <sheet name="UISound" sheetId="7" r:id="rId7"/>
-    <sheet name="#DataStruct" sheetId="8" r:id="rId8"/>
+    <sheet name="EntityGroup" sheetId="9" r:id="rId2"/>
+    <sheet name="Music" sheetId="2" r:id="rId3"/>
+    <sheet name="Scene" sheetId="3" r:id="rId4"/>
+    <sheet name="Sound" sheetId="4" r:id="rId5"/>
+    <sheet name="UIForm" sheetId="5" r:id="rId6"/>
+    <sheet name="UIGroup" sheetId="6" r:id="rId7"/>
+    <sheet name="UISound" sheetId="7" r:id="rId8"/>
+    <sheet name="#DataStruct" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -63,13 +64,55 @@
     <t>资源名称</t>
   </si>
   <si>
+    <t>实体组配置表</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>InstanceAutoReleaseInterval</t>
+  </si>
+  <si>
+    <t>InstanceCapacity</t>
+  </si>
+  <si>
+    <t>InstanceExpireTime</t>
+  </si>
+  <si>
+    <t>InstancePriority</t>
+  </si>
+  <si>
+    <t>实体组编号</t>
+  </si>
+  <si>
+    <t>策划备注</t>
+  </si>
+  <si>
+    <t>实体组名称</t>
+  </si>
+  <si>
+    <t>实体实例对象池自动释放可释放对象的间隔秒数</t>
+  </si>
+  <si>
+    <t>实体实例对象池容量</t>
+  </si>
+  <si>
+    <t>实体实例对象池对象过期秒数</t>
+  </si>
+  <si>
+    <t>实体实例对象池的优先级</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
     <t>音乐配置表</t>
   </si>
   <si>
     <t>音乐编号</t>
   </si>
   <si>
-    <t>策划备注</t>
+    <t>bgm</t>
   </si>
   <si>
     <t>场景配置表</t>
@@ -82,6 +125,9 @@
   </si>
   <si>
     <t>背景音乐编号（没有就设置为0）</t>
+  </si>
+  <si>
+    <t>GameScene</t>
   </si>
   <si>
     <t>声音配置表</t>
@@ -784,11 +830,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
@@ -1107,7 +1156,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
@@ -1140,14 +1189,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1175,24 +1224,151 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="19.6416666666667" customWidth="1"/>
+    <col min="3" max="3" width="25.7833333333333" customWidth="1"/>
+    <col min="4" max="4" width="29.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="40.7166666666667" customWidth="1"/>
+    <col min="6" max="6" width="26.2" customWidth="1"/>
+    <col min="7" max="7" width="25.925" customWidth="1"/>
+    <col min="8" max="8" width="21.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1222,13 +1398,21 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1244,19 +1428,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
+    <col min="5" max="5" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1264,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1278,7 +1464,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1300,16 +1486,27 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1319,23 +1516,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I4"/>
+      <selection activeCell="E1" sqref="E$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1349,19 +1551,19 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1378,16 +1580,16 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1395,28 +1597,28 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1425,13 +1627,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1447,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1461,13 +1663,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1484,10 +1686,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1495,27 +1697,27 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1530,13 +1732,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A1" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1551,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1562,10 +1764,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1587,16 +1789,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1604,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1617,7 +1819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F4"/>
@@ -1638,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1652,10 +1854,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1672,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1680,19 +1882,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1701,7 +1903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/Client/DEngine/Excels/DataTable/DataTable.xlsx
+++ b/Client/DEngine/Excels/DataTable/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="2"/>
+    <workbookView windowHeight="17775" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -1156,10 +1156,10 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1226,8 +1226,8 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1352,7 +1352,7 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1360,7 +1360,7 @@
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="4" max="4" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1433,7 +1433,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1521,8 +1521,8 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:F$1048576"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1530,6 +1530,11 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="33.375" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="62.25" customWidth="1"/>
+    <col min="9" max="9" width="67.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1632,7 +1637,7 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1737,7 +1742,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -1824,7 +1829,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1908,7 +1913,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Client/DEngine/Excels/DataTable/DataTable.xlsx
+++ b/Client/DEngine/Excels/DataTable/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="8"/>
+    <workbookView windowHeight="17775" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -112,7 +112,7 @@
     <t>音乐编号</t>
   </si>
   <si>
-    <t>bgm</t>
+    <t>bgm.mp3</t>
   </si>
   <si>
     <t>场景配置表</t>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>界面声音编号</t>
+  </si>
+  <si>
+    <t>通用音效</t>
+  </si>
+  <si>
+    <t>Basics.wav</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1359,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1417,10 +1423,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A3:$XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:D3 E3:XFD3">
       <formula1>$3:$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1827,13 +1833,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="4" width="27.875" customWidth="1"/>
     <col min="5" max="6" width="43.25" customWidth="1"/>
@@ -1900,6 +1906,23 @@
       </c>
       <c r="F4" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +1936,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
